--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14319.79756101159</v>
+        <v>46751.05559706417</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25720979.40063599</v>
+        <v>25669642.91211039</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4500591.0699496</v>
+        <v>4509535.39699892</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2098565259836</v>
+        <v>422.3865297040325</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>351.7691192106338</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>261.2248202355961</v>
       </c>
       <c r="J2" t="n">
-        <v>147.6228773539549</v>
+        <v>162.6177924993845</v>
       </c>
       <c r="K2" t="n">
-        <v>146.2937966433331</v>
+        <v>168.7672874155735</v>
       </c>
       <c r="L2" t="n">
-        <v>126.9764245374035</v>
+        <v>154.8567770823586</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>125.5236059864441</v>
       </c>
       <c r="N2" t="n">
-        <v>89.2146190330682</v>
+        <v>120.7388558752823</v>
       </c>
       <c r="O2" t="n">
-        <v>103.9426526760898</v>
+        <v>133.7100956040799</v>
       </c>
       <c r="P2" t="n">
-        <v>139.680036893329</v>
+        <v>165.0858607382364</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.058175334102</v>
+        <v>195.1368909901325</v>
       </c>
       <c r="R2" t="n">
-        <v>228.5844930892465</v>
+        <v>239.6824396098621</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>239.9606215534526</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>220.2452372048549</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.8053101871216</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,49 +22640,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.1251639608333</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.8146328796908</v>
       </c>
       <c r="I3" t="n">
-        <v>120.1229753234883</v>
+        <v>123.3775744401053</v>
       </c>
       <c r="J3" t="n">
-        <v>115.7222665296193</v>
+        <v>124.6531352647845</v>
       </c>
       <c r="K3" t="n">
-        <v>82.33179439963286</v>
+        <v>97.59607155587342</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>62.79893560369175</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>44.68802237877125</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>24.58528318678623</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>55.31542844358489</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>72.95571951604447</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.4467558195075</v>
+        <v>122.5132338691917</v>
       </c>
       <c r="R3" t="n">
-        <v>167.2007429781635</v>
+        <v>173.0698009520273</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>210.0693686688361</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.5394686220007</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6568043141749</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.3267675485344</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>168.3990210914259</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>170.5138353165135</v>
       </c>
       <c r="J4" t="n">
-        <v>141.954478094628</v>
+        <v>147.5574181321609</v>
       </c>
       <c r="K4" t="n">
-        <v>116.743939294024</v>
+        <v>125.9512909308596</v>
       </c>
       <c r="L4" t="n">
-        <v>105.2130294320152</v>
+        <v>116.9952695469455</v>
       </c>
       <c r="M4" t="n">
-        <v>106.1190149462079</v>
+        <v>118.5417351554377</v>
       </c>
       <c r="N4" t="n">
-        <v>91.98803323375212</v>
+        <v>104.1153689225513</v>
       </c>
       <c r="O4" t="n">
-        <v>114.9738096506548</v>
+        <v>126.1753670254217</v>
       </c>
       <c r="P4" t="n">
-        <v>126.5396865805459</v>
+        <v>136.1245540434928</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.7278282134153</v>
+        <v>176.3638936224054</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>225.2074709056173</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>245.3020430631099</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.4813791433803</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2246192313701</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,49 +22798,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1711349573947</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>349.5632077616288</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>252.9208142658397</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>144.3364326219288</v>
+        <v>147.6228773539549</v>
       </c>
       <c r="K5" t="n">
-        <v>141.3682679129369</v>
+        <v>146.2937966433331</v>
       </c>
       <c r="L5" t="n">
-        <v>120.8658706023033</v>
+        <v>126.9764245374035</v>
       </c>
       <c r="M5" t="n">
-        <v>87.70217318086767</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>82.30543274582104</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
-        <v>97.41850398649893</v>
+        <v>103.9426526760898</v>
       </c>
       <c r="P5" t="n">
-        <v>134.1118269282778</v>
+        <v>139.680036893329</v>
       </c>
       <c r="Q5" t="n">
-        <v>171.8766815441424</v>
+        <v>176.058175334102</v>
       </c>
       <c r="R5" t="n">
-        <v>226.1521493563711</v>
+        <v>228.5844930892465</v>
       </c>
       <c r="S5" t="n">
-        <v>235.0523137644422</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3023467014476</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7880786073906</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,49 +22877,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0099176112525</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.701595766634</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>119.4096628426956</v>
+        <v>120.1229753234883</v>
       </c>
       <c r="J6" t="n">
-        <v>113.7648825616249</v>
+        <v>115.7222665296193</v>
       </c>
       <c r="K6" t="n">
-        <v>78.98631343079904</v>
+        <v>82.33179439963286</v>
       </c>
       <c r="L6" t="n">
-        <v>37.77581921773398</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>15.48722582050885</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.89539017292432</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>50.94872141056362</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.8021384384895</v>
+        <v>110.4467558195075</v>
       </c>
       <c r="R6" t="n">
-        <v>165.914417949106</v>
+        <v>167.2007429781635</v>
       </c>
       <c r="S6" t="n">
-        <v>207.928718272017</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0749449585587</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6492223174919</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2301488804216</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5399932967506</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6082484609042</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>140.7264782965885</v>
+        <v>141.954478094628</v>
       </c>
       <c r="K7" t="n">
-        <v>114.7259583992129</v>
+        <v>116.743939294024</v>
       </c>
       <c r="L7" t="n">
-        <v>102.6307086531622</v>
+        <v>105.2130294320152</v>
       </c>
       <c r="M7" t="n">
-        <v>103.3963197529977</v>
+        <v>106.1190149462079</v>
       </c>
       <c r="N7" t="n">
-        <v>89.33007764671341</v>
+        <v>91.98803323375212</v>
       </c>
       <c r="O7" t="n">
-        <v>112.5187574634465</v>
+        <v>114.9738096506548</v>
       </c>
       <c r="P7" t="n">
-        <v>124.438965311018</v>
+        <v>126.5396865805459</v>
       </c>
       <c r="Q7" t="n">
-        <v>168.2733976952537</v>
+        <v>169.7278282134153</v>
       </c>
       <c r="R7" t="n">
-        <v>220.8631442466561</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6182431833629</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0685539250803</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2193491222004</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H11" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I11" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J11" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047494</v>
       </c>
       <c r="L11" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M11" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792782</v>
       </c>
       <c r="P11" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R11" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S11" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I12" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J12" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K12" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R12" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3221687203799</v>
       </c>
       <c r="S12" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I13" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J13" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K13" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L13" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M13" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N13" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O13" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P13" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R13" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S13" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U13" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H14" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I14" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J14" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K14" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047494</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792782</v>
       </c>
       <c r="P14" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R14" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S14" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I15" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J15" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K15" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R15" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3221687203799</v>
       </c>
       <c r="S15" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I16" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J16" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K16" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L16" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M16" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N16" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O16" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P16" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R16" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S16" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U16" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H17" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I17" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J17" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R17" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S17" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I18" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J18" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R18" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I19" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J19" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K19" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L19" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M19" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N19" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O19" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P19" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R19" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S19" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U19" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H20" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I20" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J20" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R20" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S20" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I21" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J21" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R21" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I22" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J22" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K22" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L22" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M22" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N22" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O22" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P22" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R22" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S22" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U22" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H23" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I23" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J23" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R23" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I24" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J24" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R24" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J25" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K25" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L25" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M25" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N25" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O25" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P25" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R25" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S25" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U25" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H26" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I26" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J26" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K26" t="n">
-        <v>82.69308435253603</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R26" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S26" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I27" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J27" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R27" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J28" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K28" t="n">
-        <v>90.6868336868295</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L28" t="n">
-        <v>71.86890540227661</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M28" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N28" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O28" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P28" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R28" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S28" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U28" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H29" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I29" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J29" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R29" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S29" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I30" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J30" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R30" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I31" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J31" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K31" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L31" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M31" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N31" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O31" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P31" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R31" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S31" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U31" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I32" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J32" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K32" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R32" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S32" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I33" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J33" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R33" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I34" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J34" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K34" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L34" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M34" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N34" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O34" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P34" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R34" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S34" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U34" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I35" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J35" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R35" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I36" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J36" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R36" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I37" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J37" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K37" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L37" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M37" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N37" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O37" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P37" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q37" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R37" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S37" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U37" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I38" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J38" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R38" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S38" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I39" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J39" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R39" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S39" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I40" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J40" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K40" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L40" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M40" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N40" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O40" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P40" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q40" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R40" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S40" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U40" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H41" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I41" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J41" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q41" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R41" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I42" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J42" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R42" t="n">
-        <v>150.5911173798657</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I43" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J43" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K43" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L43" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M43" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N43" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O43" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P43" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R43" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S43" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U43" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6716671696725</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4480332806193</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6650823796813</v>
       </c>
       <c r="J44" t="n">
-        <v>105.186778144686</v>
+        <v>101.9447284737456</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>77.83409231047494</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>42.0461076913395</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>13.26380076792782</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>62.28773471909744</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.064787408095</v>
+        <v>117.9397794827617</v>
       </c>
       <c r="R44" t="n">
-        <v>197.1769422628221</v>
+        <v>194.7774559358693</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6706915517236</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1159264606939</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481211843728</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7426787850198</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1206313132817</v>
       </c>
       <c r="I45" t="n">
-        <v>110.912353612084</v>
+        <v>110.2086769395097</v>
       </c>
       <c r="J45" t="n">
-        <v>90.44761655696213</v>
+        <v>88.51667398321378</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>35.83310349479973</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.29822915852546</v>
+        <v>73.68933668991343</v>
       </c>
       <c r="R45" t="n">
-        <v>150.5911173798657</v>
+        <v>149.3221687203799</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9648742847568</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9977849528227</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316408157661</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0061048256422</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5480379733477</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8706327044453</v>
       </c>
       <c r="J46" t="n">
-        <v>126.0979749407038</v>
+        <v>124.8865636236802</v>
       </c>
       <c r="K46" t="n">
-        <v>90.68683368682949</v>
+        <v>88.69611276210766</v>
       </c>
       <c r="L46" t="n">
-        <v>71.8689054022766</v>
+        <v>69.3214679998587</v>
       </c>
       <c r="M46" t="n">
-        <v>70.962311348019</v>
+        <v>68.27639578424916</v>
       </c>
       <c r="N46" t="n">
-        <v>57.66727746803184</v>
+        <v>55.045226973052</v>
       </c>
       <c r="O46" t="n">
-        <v>83.27303672572057</v>
+        <v>80.85114870243615</v>
       </c>
       <c r="P46" t="n">
-        <v>99.41419886551341</v>
+        <v>97.34185526750879</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9475465430031</v>
+        <v>149.512763253675</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>210.7893088381176</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7137663377971</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1112747819317</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071285373942</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>309442.7411861106</v>
+        <v>269837.1074606676</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>317786.1434177519</v>
+        <v>309442.7411861106</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>411317.7100973784</v>
+        <v>417837.5071129791</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>50308.6132553787</v>
+      </c>
+      <c r="C2" t="n">
         <v>57692.71445842739</v>
-      </c>
-      <c r="C2" t="n">
-        <v>59248.26402703845</v>
       </c>
       <c r="D2" t="n">
         <v>63837.54821529597</v>
       </c>
       <c r="E2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="F2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="G2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="H2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="I2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580971</v>
       </c>
       <c r="J2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580971</v>
       </c>
       <c r="K2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580971</v>
       </c>
       <c r="L2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580971</v>
       </c>
       <c r="M2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580971</v>
       </c>
       <c r="N2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="O2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="P2" t="n">
-        <v>76686.35273001969</v>
+        <v>77901.90810580968</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>288523.4171191895</v>
       </c>
       <c r="C3" t="n">
-        <v>8770.90952780766</v>
+        <v>40018.63863282875</v>
       </c>
       <c r="D3" t="n">
-        <v>24336.65507127579</v>
+        <v>32585.62631485736</v>
       </c>
       <c r="E3" t="n">
-        <v>69352.80631588837</v>
+        <v>76986.64207082904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40154.92008928722</v>
+      </c>
+      <c r="C5" t="n">
         <v>41112.97456555201</v>
-      </c>
-      <c r="C5" t="n">
-        <v>41322.95195161772</v>
       </c>
       <c r="D5" t="n">
         <v>41942.44098443807</v>
       </c>
       <c r="E5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="F5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10403.84089748803</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-314292.0142922288</v>
+        <v>-278369.723953098</v>
       </c>
       <c r="C6" t="n">
-        <v>9154.40254761307</v>
+        <v>-23438.89873995337</v>
       </c>
       <c r="D6" t="n">
-        <v>-2441.547840417887</v>
+        <v>-10690.51908399946</v>
       </c>
       <c r="E6" t="n">
-        <v>-2863.153584632531</v>
+        <v>-9488.57486250739</v>
       </c>
       <c r="F6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832165</v>
       </c>
       <c r="G6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832165</v>
       </c>
       <c r="H6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832165</v>
       </c>
       <c r="I6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832168</v>
       </c>
       <c r="J6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832168</v>
       </c>
       <c r="K6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832168</v>
       </c>
       <c r="L6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832168</v>
       </c>
       <c r="M6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832168</v>
       </c>
       <c r="N6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832165</v>
       </c>
       <c r="O6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832165</v>
       </c>
       <c r="P6" t="n">
-        <v>66489.65273125585</v>
+        <v>67498.06720832165</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>299.4183527195974</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>352.9977959457669</v>
       </c>
       <c r="D3" t="n">
         <v>381.4147240567924</v>
       </c>
       <c r="E3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="F3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="G3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="H3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="I3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="J3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="L3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="N3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="O3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.2404081416527</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>299.4183527195974</v>
       </c>
       <c r="C3" t="n">
-        <v>9.631990186500426</v>
+        <v>43.94745303966909</v>
       </c>
       <c r="D3" t="n">
-        <v>28.41692811102549</v>
+        <v>38.04891829752592</v>
       </c>
       <c r="E3" t="n">
-        <v>86.32380799659495</v>
+        <v>95.82568408486031</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.203691870229536</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>12.32730936598824</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>46.40533082702424</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>102.1618428708942</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>153.1141197377105</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562029</v>
+        <v>189.9516048112477</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>211.3577601084422</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>214.7777496347319</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>202.808538600137</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>173.0923955538453</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>129.9851804512499</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>75.61140944330619</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>27.42912849285559</v>
       </c>
       <c r="T2" t="n">
-        <v>6.04254799883895</v>
+        <v>5.269161161929798</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.09629534961836289</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.6440319284912095</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>6.219992572533525</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>22.17390630989472</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>60.84689373521556</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003672</v>
+        <v>103.9970329441266</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>139.8368448243743</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>163.1830022321806</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>167.5019707350887</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>153.2315790564151</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>122.9818513274135</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>82.21011073161475</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>39.98647359527003</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>11.96261060158013</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.595900624050094</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.0423705216112638</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5399347344123887</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>4.800510638684695</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>16.2373100130562</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>38.17338572295588</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>62.73059914354842</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>80.27356951436552</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>84.63722386793471</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>82.62473985785223</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>76.31732046039839</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>65.3026518783856</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>45.2121712606592</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>24.27742905821522</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>9.409589871532262</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.306993865216569</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.02945098551340306</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.419086616867404</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5332208149933</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.70933679678063</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>120.4432027483499</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5131392403472</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>223.942511291303</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>249.1791929140187</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>253.2111727641932</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
-        <v>239.1001302177179</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>204.0664293638039</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.24538989724</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>89.14169969679713</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.337436281866</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.212051665337063</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1135269293493923</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7592782780720271</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.333029685590367</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
-        <v>26.14181790730444</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.73514643837515</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>122.606791069201</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
-        <v>164.859961210332</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>192.383798790443</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>180.6516173270757</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>144.9888494328944</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.92120616231701</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>47.14185659819131</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
-        <v>14.10326099839926</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.060424287492073</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04995251829421232</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6365534025251535</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.659538433360004</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>19.14289686866553</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>45.00432555852834</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.95593167519509</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>94.63813040814874</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>99.78263927037472</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>97.41003113369014</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.97393002237354</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.98824061086034</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.3026671878108</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.62175571717644</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>11.09338975127926</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.719819083516564</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03472109468319023</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H11" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I11" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J11" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K11" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L11" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M11" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>316.8188164523022</v>
+        <v>323.2548334362891</v>
       </c>
       <c r="P11" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R11" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S11" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671646</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H12" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I12" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J12" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R12" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691735</v>
       </c>
       <c r="S12" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T12" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I13" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J13" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L13" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M13" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N13" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O13" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P13" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R13" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S13" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T13" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H14" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I14" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K14" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L14" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M14" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>316.8188164523022</v>
+        <v>323.2548334362891</v>
       </c>
       <c r="P14" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R14" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S14" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T14" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671646</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H15" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I15" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J15" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R15" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691735</v>
       </c>
       <c r="S15" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T15" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I16" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J16" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K16" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L16" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M16" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N16" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O16" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P16" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R16" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S16" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T16" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M17" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R17" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S17" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I18" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K18" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S18" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I19" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J19" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L19" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M19" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N19" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O19" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P19" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R19" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T19" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H20" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M20" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R20" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S20" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I21" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K21" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S21" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J22" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L22" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N22" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O22" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P22" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R22" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T22" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H23" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M23" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R23" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S23" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I24" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S24" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I25" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J25" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L25" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M25" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N25" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P25" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R25" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T25" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M26" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0572840332873</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R26" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S26" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T26" t="n">
-        <v>8.23125798618574</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I27" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S27" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429724</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I28" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J28" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K28" t="n">
-        <v>97.99505638757849</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M28" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N28" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O28" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P28" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R28" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T28" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H29" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M29" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R29" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S29" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I30" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K30" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S30" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I31" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J31" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L31" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M31" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N31" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O31" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P31" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R31" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T31" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H32" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M32" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R32" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S32" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T32" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I33" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S33" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I34" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J34" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K34" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L34" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M34" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N34" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O34" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P34" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R34" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T34" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H35" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M35" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R35" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S35" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T35" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I36" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K36" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S36" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J37" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K37" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L37" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M37" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N37" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O37" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P37" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R37" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T37" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H38" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M38" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R38" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S38" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I39" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S39" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I40" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J40" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L40" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M40" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O40" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P40" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R40" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T40" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H41" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M41" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R41" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S41" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T41" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I42" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S42" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I43" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J43" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K43" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N43" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O43" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P43" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R43" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T43" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.918554404589557</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64839529600281</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>73.96506868293898</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>162.8349068965331</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>244.0473148428091</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>302.7622742022668</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>336.8813660948863</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>323.2548334362891</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>275.8905215729843</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332874</v>
+        <v>207.1822919586207</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>120.5163931172989</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>43.71905849458458</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.398471906090791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534843523671646</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026517104304687</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.913994138942636</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>35.34280381049032</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>96.98335501678626</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>165.7600010052003</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>131.0340079108931</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>63.73410582691735</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>19.06710498565942</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.137584293228101</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06753402002004523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8605974573046196</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.651493756762896</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.88051262512439</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>60.8442402314366</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>99.98577731230033</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>127.9473710614523</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>134.9025632391232</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6948818073515</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>121.6415387833839</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>104.0853506543696</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>72.06330162938956</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>38.69559112571498</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99786659684505</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.677098226665192</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04694167948934295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_21_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46751.05559706417</v>
+        <v>-99169.84236413086</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25669642.91211039</v>
+        <v>25669642.9121104</v>
       </c>
     </row>
     <row r="9">
@@ -22570,28 +22570,28 @@
         <v>261.2248202355961</v>
       </c>
       <c r="J2" t="n">
-        <v>162.6177924993845</v>
+        <v>162.6177924993846</v>
       </c>
       <c r="K2" t="n">
-        <v>168.7672874155735</v>
+        <v>168.7672874155737</v>
       </c>
       <c r="L2" t="n">
-        <v>154.8567770823586</v>
+        <v>154.8567770823588</v>
       </c>
       <c r="M2" t="n">
-        <v>125.5236059864441</v>
+        <v>125.5236059864444</v>
       </c>
       <c r="N2" t="n">
-        <v>120.7388558752823</v>
+        <v>120.7388558752826</v>
       </c>
       <c r="O2" t="n">
-        <v>133.7100956040799</v>
+        <v>133.7100956040802</v>
       </c>
       <c r="P2" t="n">
-        <v>165.0858607382364</v>
+        <v>165.0858607382366</v>
       </c>
       <c r="Q2" t="n">
-        <v>195.1368909901325</v>
+        <v>195.1368909901326</v>
       </c>
       <c r="R2" t="n">
         <v>239.6824396098621</v>
@@ -22649,28 +22649,28 @@
         <v>123.3775744401053</v>
       </c>
       <c r="J3" t="n">
-        <v>124.6531352647845</v>
+        <v>124.6531352647846</v>
       </c>
       <c r="K3" t="n">
-        <v>97.59607155587342</v>
+        <v>97.59607155587354</v>
       </c>
       <c r="L3" t="n">
-        <v>62.79893560369175</v>
+        <v>62.79893560369189</v>
       </c>
       <c r="M3" t="n">
-        <v>44.68802237877125</v>
+        <v>44.68802237877145</v>
       </c>
       <c r="N3" t="n">
-        <v>24.58528318678623</v>
+        <v>24.58528318678643</v>
       </c>
       <c r="O3" t="n">
-        <v>55.31542844358489</v>
+        <v>55.31542844358506</v>
       </c>
       <c r="P3" t="n">
-        <v>72.95571951604447</v>
+        <v>72.95571951604461</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.5132338691917</v>
+        <v>122.5132338691918</v>
       </c>
       <c r="R3" t="n">
         <v>173.0698009520273</v>
@@ -22725,22 +22725,22 @@
         <v>168.3990210914259</v>
       </c>
       <c r="I4" t="n">
-        <v>170.5138353165135</v>
+        <v>170.5138353165136</v>
       </c>
       <c r="J4" t="n">
-        <v>147.5574181321609</v>
+        <v>147.557418132161</v>
       </c>
       <c r="K4" t="n">
         <v>125.9512909308596</v>
       </c>
       <c r="L4" t="n">
-        <v>116.9952695469455</v>
+        <v>116.9952695469456</v>
       </c>
       <c r="M4" t="n">
-        <v>118.5417351554377</v>
+        <v>118.5417351554378</v>
       </c>
       <c r="N4" t="n">
-        <v>104.1153689225513</v>
+        <v>104.1153689225514</v>
       </c>
       <c r="O4" t="n">
         <v>126.1753670254217</v>
@@ -22752,7 +22752,7 @@
         <v>176.3638936224054</v>
       </c>
       <c r="R4" t="n">
-        <v>225.2074709056173</v>
+        <v>225.2074709056174</v>
       </c>
       <c r="S4" t="n">
         <v>245.3020430631099</v>
@@ -23284,7 +23284,7 @@
         <v>101.9447284737456</v>
       </c>
       <c r="K11" t="n">
-        <v>77.83409231047494</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L11" t="n">
         <v>42.0461076913395</v>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.26380076792782</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P11" t="n">
         <v>62.28773471909744</v>
@@ -23384,7 +23384,7 @@
         <v>73.68933668991343</v>
       </c>
       <c r="R12" t="n">
-        <v>149.3221687203799</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S12" t="n">
         <v>202.9648742847568</v>
@@ -24469,7 +24469,7 @@
         <v>101.9447284737456</v>
       </c>
       <c r="K26" t="n">
-        <v>77.83409231047497</v>
+        <v>77.83409231047494</v>
       </c>
       <c r="L26" t="n">
         <v>42.0461076913395</v>
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.26380076792788</v>
+        <v>13.26380076792782</v>
       </c>
       <c r="P26" t="n">
         <v>62.28773471909744</v>
@@ -24569,7 +24569,7 @@
         <v>73.68933668991343</v>
       </c>
       <c r="R27" t="n">
-        <v>149.32216872038</v>
+        <v>149.3221687203799</v>
       </c>
       <c r="S27" t="n">
         <v>202.9648742847568</v>
@@ -25891,7 +25891,7 @@
         <v>101.9447284737456</v>
       </c>
       <c r="K44" t="n">
-        <v>77.83409231047494</v>
+        <v>77.83409231047497</v>
       </c>
       <c r="L44" t="n">
         <v>42.0461076913395</v>
@@ -25903,7 +25903,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.26380076792782</v>
+        <v>13.26380076792788</v>
       </c>
       <c r="P44" t="n">
         <v>62.28773471909744</v>
@@ -25991,7 +25991,7 @@
         <v>73.68933668991343</v>
       </c>
       <c r="R45" t="n">
-        <v>149.3221687203799</v>
+        <v>149.32216872038</v>
       </c>
       <c r="S45" t="n">
         <v>202.9648742847568</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>269837.1074606676</v>
+        <v>269837.1074606672</v>
       </c>
     </row>
     <row r="3">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50308.6132553787</v>
+        <v>50308.61325537864</v>
       </c>
       <c r="C2" t="n">
         <v>57692.71445842739</v>
@@ -26325,28 +26325,28 @@
         <v>77901.90810580968</v>
       </c>
       <c r="F2" t="n">
-        <v>77901.90810580968</v>
+        <v>77901.90810580969</v>
       </c>
       <c r="G2" t="n">
-        <v>77901.90810580968</v>
+        <v>77901.90810580969</v>
       </c>
       <c r="H2" t="n">
         <v>77901.90810580968</v>
       </c>
       <c r="I2" t="n">
-        <v>77901.90810580971</v>
+        <v>77901.90810580966</v>
       </c>
       <c r="J2" t="n">
-        <v>77901.90810580971</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="K2" t="n">
-        <v>77901.90810580971</v>
+        <v>77901.90810580969</v>
       </c>
       <c r="L2" t="n">
-        <v>77901.90810580971</v>
+        <v>77901.90810580968</v>
       </c>
       <c r="M2" t="n">
-        <v>77901.90810580971</v>
+        <v>77901.90810580969</v>
       </c>
       <c r="N2" t="n">
         <v>77901.90810580968</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>288523.4171191895</v>
+        <v>288523.4171191891</v>
       </c>
       <c r="C3" t="n">
-        <v>40018.63863282875</v>
+        <v>40018.63863282906</v>
       </c>
       <c r="D3" t="n">
         <v>32585.62631485736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278369.723953098</v>
+        <v>-297616.3499815842</v>
       </c>
       <c r="C6" t="n">
-        <v>-23438.89873995337</v>
+        <v>-42014.24284089029</v>
       </c>
       <c r="D6" t="n">
-        <v>-10690.51908399946</v>
+        <v>-28707.24193431165</v>
       </c>
       <c r="E6" t="n">
-        <v>-9488.57486250739</v>
+        <v>-26226.71954095471</v>
       </c>
       <c r="F6" t="n">
-        <v>67498.06720832165</v>
+        <v>50759.92252987435</v>
       </c>
       <c r="G6" t="n">
-        <v>67498.06720832165</v>
+        <v>50759.92252987435</v>
       </c>
       <c r="H6" t="n">
-        <v>67498.06720832165</v>
+        <v>50759.92252987433</v>
       </c>
       <c r="I6" t="n">
-        <v>67498.06720832168</v>
+        <v>50759.92252987432</v>
       </c>
       <c r="J6" t="n">
-        <v>67498.06720832168</v>
+        <v>50759.92252987433</v>
       </c>
       <c r="K6" t="n">
-        <v>67498.06720832168</v>
+        <v>50759.92252987435</v>
       </c>
       <c r="L6" t="n">
-        <v>67498.06720832168</v>
+        <v>50759.92252987433</v>
       </c>
       <c r="M6" t="n">
-        <v>67498.06720832168</v>
+        <v>50759.92252987435</v>
       </c>
       <c r="N6" t="n">
-        <v>67498.06720832165</v>
+        <v>50759.92252987433</v>
       </c>
       <c r="O6" t="n">
-        <v>67498.06720832165</v>
+        <v>50759.92252987433</v>
       </c>
       <c r="P6" t="n">
-        <v>67498.06720832165</v>
+        <v>50759.92252987433</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.4183527195974</v>
+        <v>299.4183527195971</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>299.4183527195974</v>
+        <v>299.4183527195971</v>
       </c>
       <c r="C3" t="n">
-        <v>43.94745303966909</v>
+        <v>43.94745303966943</v>
       </c>
       <c r="D3" t="n">
         <v>38.04891829752592</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.203691870229536</v>
+        <v>1.203691870229535</v>
       </c>
       <c r="H2" t="n">
-        <v>12.32730936598824</v>
+        <v>12.32730936598823</v>
       </c>
       <c r="I2" t="n">
-        <v>46.40533082702424</v>
+        <v>46.40533082702419</v>
       </c>
       <c r="J2" t="n">
-        <v>102.1618428708942</v>
+        <v>102.1618428708941</v>
       </c>
       <c r="K2" t="n">
-        <v>153.1141197377105</v>
+        <v>153.1141197377104</v>
       </c>
       <c r="L2" t="n">
-        <v>189.9516048112477</v>
+        <v>189.9516048112475</v>
       </c>
       <c r="M2" t="n">
-        <v>211.3577601084422</v>
+        <v>211.357760108442</v>
       </c>
       <c r="N2" t="n">
-        <v>214.7777496347319</v>
+        <v>214.7777496347317</v>
       </c>
       <c r="O2" t="n">
-        <v>202.808538600137</v>
+        <v>202.8085386001367</v>
       </c>
       <c r="P2" t="n">
-        <v>173.0923955538453</v>
+        <v>173.0923955538451</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.9851804512499</v>
+        <v>129.9851804512498</v>
       </c>
       <c r="R2" t="n">
-        <v>75.61140944330619</v>
+        <v>75.6114094433061</v>
       </c>
       <c r="S2" t="n">
-        <v>27.42912849285559</v>
+        <v>27.42912849285556</v>
       </c>
       <c r="T2" t="n">
-        <v>5.269161161929798</v>
+        <v>5.269161161929793</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09629534961836289</v>
+        <v>0.09629534961836278</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6440319284912095</v>
+        <v>0.6440319284912088</v>
       </c>
       <c r="H3" t="n">
-        <v>6.219992572533525</v>
+        <v>6.219992572533518</v>
       </c>
       <c r="I3" t="n">
-        <v>22.17390630989472</v>
+        <v>22.17390630989469</v>
       </c>
       <c r="J3" t="n">
-        <v>60.84689373521556</v>
+        <v>60.84689373521549</v>
       </c>
       <c r="K3" t="n">
-        <v>103.9970329441266</v>
+        <v>103.9970329441265</v>
       </c>
       <c r="L3" t="n">
-        <v>139.8368448243743</v>
+        <v>139.8368448243741</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1830022321806</v>
+        <v>163.1830022321804</v>
       </c>
       <c r="N3" t="n">
-        <v>167.5019707350887</v>
+        <v>167.5019707350885</v>
       </c>
       <c r="O3" t="n">
-        <v>153.2315790564151</v>
+        <v>153.2315790564149</v>
       </c>
       <c r="P3" t="n">
-        <v>122.9818513274135</v>
+        <v>122.9818513274134</v>
       </c>
       <c r="Q3" t="n">
-        <v>82.21011073161475</v>
+        <v>82.21011073161466</v>
       </c>
       <c r="R3" t="n">
-        <v>39.98647359527003</v>
+        <v>39.98647359526998</v>
       </c>
       <c r="S3" t="n">
-        <v>11.96261060158013</v>
+        <v>11.96261060158012</v>
       </c>
       <c r="T3" t="n">
-        <v>2.595900624050094</v>
+        <v>2.595900624050091</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0423705216112638</v>
+        <v>0.04237052161126376</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5399347344123887</v>
+        <v>0.539934734412388</v>
       </c>
       <c r="H4" t="n">
-        <v>4.800510638684695</v>
+        <v>4.80051063868469</v>
       </c>
       <c r="I4" t="n">
-        <v>16.2373100130562</v>
+        <v>16.23731001305618</v>
       </c>
       <c r="J4" t="n">
-        <v>38.17338572295588</v>
+        <v>38.17338572295584</v>
       </c>
       <c r="K4" t="n">
-        <v>62.73059914354842</v>
+        <v>62.73059914354835</v>
       </c>
       <c r="L4" t="n">
-        <v>80.27356951436552</v>
+        <v>80.27356951436542</v>
       </c>
       <c r="M4" t="n">
-        <v>84.63722386793471</v>
+        <v>84.63722386793461</v>
       </c>
       <c r="N4" t="n">
-        <v>82.62473985785223</v>
+        <v>82.62473985785213</v>
       </c>
       <c r="O4" t="n">
-        <v>76.31732046039839</v>
+        <v>76.31732046039831</v>
       </c>
       <c r="P4" t="n">
-        <v>65.3026518783856</v>
+        <v>65.30265187838553</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.2121712606592</v>
+        <v>45.21217126065915</v>
       </c>
       <c r="R4" t="n">
-        <v>24.27742905821522</v>
+        <v>24.27742905821519</v>
       </c>
       <c r="S4" t="n">
-        <v>9.409589871532262</v>
+        <v>9.409589871532251</v>
       </c>
       <c r="T4" t="n">
-        <v>2.306993865216569</v>
+        <v>2.306993865216567</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02945098551340306</v>
+        <v>0.02945098551340302</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31776,7 +31776,7 @@
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>323.2548334362891</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P11" t="n">
         <v>275.8905215729843</v>
@@ -31794,7 +31794,7 @@
         <v>8.398471906090791</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1534843523671646</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31864,7 +31864,7 @@
         <v>131.0340079108931</v>
       </c>
       <c r="R12" t="n">
-        <v>63.73410582691735</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S12" t="n">
         <v>19.06710498565942</v>
@@ -31952,7 +31952,7 @@
         <v>3.677098226665192</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04694167948934295</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32961,7 +32961,7 @@
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>323.254833436289</v>
+        <v>323.2548334362891</v>
       </c>
       <c r="P26" t="n">
         <v>275.8905215729843</v>
@@ -32979,7 +32979,7 @@
         <v>8.398471906090791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1534843523671645</v>
+        <v>0.1534843523671646</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33049,7 +33049,7 @@
         <v>131.0340079108931</v>
       </c>
       <c r="R27" t="n">
-        <v>63.73410582691734</v>
+        <v>63.73410582691735</v>
       </c>
       <c r="S27" t="n">
         <v>19.06710498565942</v>
@@ -33137,7 +33137,7 @@
         <v>3.677098226665192</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04694167948934294</v>
+        <v>0.04694167948934295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>323.2548334362891</v>
+        <v>323.254833436289</v>
       </c>
       <c r="P44" t="n">
         <v>275.8905215729843</v>
@@ -34401,7 +34401,7 @@
         <v>8.398471906090791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1534843523671646</v>
+        <v>0.1534843523671645</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>131.0340079108931</v>
       </c>
       <c r="R45" t="n">
-        <v>63.73410582691735</v>
+        <v>63.73410582691734</v>
       </c>
       <c r="S45" t="n">
         <v>19.06710498565942</v>
@@ -34559,7 +34559,7 @@
         <v>3.677098226665192</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04694167948934295</v>
+        <v>0.04694167948934294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
